--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H2">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I2">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J2">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N2">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q2">
-        <v>136.2878523267869</v>
+        <v>160.0802820112467</v>
       </c>
       <c r="R2">
-        <v>136.2878523267869</v>
+        <v>1440.72253810122</v>
       </c>
       <c r="S2">
-        <v>0.02826197117621395</v>
+        <v>0.0273672777089509</v>
       </c>
       <c r="T2">
-        <v>0.02826197117621395</v>
+        <v>0.0273672777089509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H3">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I3">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J3">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N3">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q3">
-        <v>1669.761723577775</v>
+        <v>1918.365560678252</v>
       </c>
       <c r="R3">
-        <v>1669.761723577775</v>
+        <v>17265.29004610426</v>
       </c>
       <c r="S3">
-        <v>0.3462579892281802</v>
+        <v>0.3279632093769083</v>
       </c>
       <c r="T3">
-        <v>0.3462579892281802</v>
+        <v>0.3279632093769083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,805 +652,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H4">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I4">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J4">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N4">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q4">
-        <v>1416.402277459438</v>
+        <v>3.700486928563333</v>
       </c>
       <c r="R4">
-        <v>1416.402277459438</v>
+        <v>33.30438235707</v>
       </c>
       <c r="S4">
-        <v>0.2937189166610309</v>
+        <v>0.0006326341518140284</v>
       </c>
       <c r="T4">
-        <v>0.2937189166610309</v>
+        <v>0.0006326341518140284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.76965729360687</v>
+        <v>36.464945</v>
       </c>
       <c r="H5">
-        <v>3.76965729360687</v>
+        <v>109.394835</v>
       </c>
       <c r="I5">
-        <v>0.07928392849370547</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J5">
-        <v>0.07928392849370547</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N5">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q5">
-        <v>16.17002049609834</v>
+        <v>4.842362371275</v>
       </c>
       <c r="R5">
-        <v>16.17002049609834</v>
+        <v>43.581261341475</v>
       </c>
       <c r="S5">
-        <v>0.003353172314167423</v>
+        <v>0.0008278488400760464</v>
       </c>
       <c r="T5">
-        <v>0.003353172314167423</v>
+        <v>0.0008278488400760464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.76965729360687</v>
+        <v>36.464945</v>
       </c>
       <c r="H6">
-        <v>3.76965729360687</v>
+        <v>109.394835</v>
       </c>
       <c r="I6">
-        <v>0.07928392849370547</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J6">
-        <v>0.07928392849370547</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N6">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q6">
-        <v>198.1106960957395</v>
+        <v>7.124277854466666</v>
       </c>
       <c r="R6">
-        <v>198.1106960957395</v>
+        <v>64.11850069019999</v>
       </c>
       <c r="S6">
-        <v>0.04108215579868675</v>
+        <v>0.001217964436776918</v>
       </c>
       <c r="T6">
-        <v>0.04108215579868675</v>
+        <v>0.001217964436776918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.76965729360687</v>
+        <v>36.464945</v>
       </c>
       <c r="H7">
-        <v>3.76965729360687</v>
+        <v>109.394835</v>
       </c>
       <c r="I7">
-        <v>0.07928392849370547</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J7">
-        <v>0.07928392849370547</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N7">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q7">
-        <v>168.0505890013054</v>
+        <v>1690.74392298449</v>
       </c>
       <c r="R7">
-        <v>168.0505890013054</v>
+        <v>15216.69530686041</v>
       </c>
       <c r="S7">
-        <v>0.0348486003808513</v>
+        <v>0.2890490814589319</v>
       </c>
       <c r="T7">
-        <v>0.0348486003808513</v>
+        <v>0.2890490814589319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>9.644664834219579</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H8">
-        <v>9.644664834219579</v>
+        <v>0.181747</v>
       </c>
       <c r="I8">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J8">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N8">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q8">
-        <v>41.37098306305445</v>
+        <v>0.2659550701337778</v>
       </c>
       <c r="R8">
-        <v>41.37098306305445</v>
+        <v>2.393595631204</v>
       </c>
       <c r="S8">
-        <v>0.00857908838460633</v>
+        <v>4.546760020039978E-05</v>
       </c>
       <c r="T8">
-        <v>0.00857908838460633</v>
+        <v>4.546760020039977E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>9.644664834219579</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H9">
-        <v>9.644664834219579</v>
+        <v>0.181747</v>
       </c>
       <c r="I9">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J9">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N9">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q9">
-        <v>506.8660398274934</v>
+        <v>3.187144855208111</v>
       </c>
       <c r="R9">
-        <v>506.8660398274934</v>
+        <v>28.684303696873</v>
       </c>
       <c r="S9">
-        <v>0.1051086590861979</v>
+        <v>0.0005448733426457013</v>
       </c>
       <c r="T9">
-        <v>0.1051086590861979</v>
+        <v>0.0005448733426457013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>9.644664834219579</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H10">
-        <v>9.644664834219579</v>
+        <v>0.181747</v>
       </c>
       <c r="I10">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J10">
-        <v>0.2028478605625115</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N10">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O10">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P10">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q10">
-        <v>429.9572825517988</v>
+        <v>0.006147935574888889</v>
       </c>
       <c r="R10">
-        <v>429.9572825517988</v>
+        <v>0.055331420174</v>
       </c>
       <c r="S10">
-        <v>0.08916011309170722</v>
+        <v>1.051049249169252E-06</v>
       </c>
       <c r="T10">
-        <v>0.08916011309170722</v>
+        <v>1.051049249169252E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.463279032513029</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H11">
-        <v>0.463279032513029</v>
+        <v>0.181747</v>
       </c>
       <c r="I11">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J11">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N11">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O11">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P11">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q11">
-        <v>1.987244692999812</v>
+        <v>0.008045030955000001</v>
       </c>
       <c r="R11">
-        <v>1.987244692999812</v>
+        <v>0.07240527859500001</v>
       </c>
       <c r="S11">
-        <v>0.0004120943376448386</v>
+        <v>1.375376114761736E-06</v>
       </c>
       <c r="T11">
-        <v>0.0004120943376448386</v>
+        <v>1.375376114761736E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.463279032513029</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H12">
-        <v>0.463279032513029</v>
+        <v>0.181747</v>
       </c>
       <c r="I12">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J12">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N12">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O12">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P12">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q12">
-        <v>24.34718184418822</v>
+        <v>0.01183617240444445</v>
       </c>
       <c r="R12">
-        <v>24.34718184418822</v>
+        <v>0.10652555164</v>
       </c>
       <c r="S12">
-        <v>0.005048867817306148</v>
+        <v>2.023508536677206E-06</v>
       </c>
       <c r="T12">
-        <v>0.005048867817306148</v>
+        <v>2.023508536677206E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.463279032513029</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H13">
-        <v>0.463279032513029</v>
+        <v>0.181747</v>
       </c>
       <c r="I13">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907612</v>
       </c>
       <c r="J13">
-        <v>0.009743745604856194</v>
+        <v>0.001075012848907611</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N13">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O13">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P13">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q13">
-        <v>20.65288916788432</v>
+        <v>2.808977551551333</v>
       </c>
       <c r="R13">
-        <v>20.65288916788432</v>
+        <v>25.280797963962</v>
       </c>
       <c r="S13">
-        <v>0.004282783449905208</v>
+        <v>0.0004802219721609023</v>
       </c>
       <c r="T13">
-        <v>0.004282783449905208</v>
+        <v>0.0004802219721609024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.89641206738315</v>
+        <v>6.725386</v>
       </c>
       <c r="H14">
-        <v>1.89641206738315</v>
+        <v>20.176158</v>
       </c>
       <c r="I14">
-        <v>0.03988558827350156</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J14">
-        <v>0.03988558827350156</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N14">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O14">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P14">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q14">
-        <v>8.134697562730686</v>
+        <v>29.52429209791734</v>
       </c>
       <c r="R14">
-        <v>8.134697562730686</v>
+        <v>265.718628881256</v>
       </c>
       <c r="S14">
-        <v>0.001686889800668801</v>
+        <v>0.005047464252637444</v>
       </c>
       <c r="T14">
-        <v>0.001686889800668801</v>
+        <v>0.005047464252637445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.89641206738315</v>
+        <v>6.725386</v>
       </c>
       <c r="H15">
-        <v>1.89641206738315</v>
+        <v>20.176158</v>
       </c>
       <c r="I15">
-        <v>0.03988558827350156</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="J15">
-        <v>0.03988558827350156</v>
+        <v>0.1193396814890485</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N15">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O15">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P15">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q15">
-        <v>99.6641035223021</v>
+        <v>353.8123774673913</v>
       </c>
       <c r="R15">
-        <v>99.6641035223021</v>
+        <v>3184.311397206522</v>
       </c>
       <c r="S15">
-        <v>0.02066731534001062</v>
+        <v>0.06048765950033731</v>
       </c>
       <c r="T15">
-        <v>0.02066731534001062</v>
+        <v>0.06048765950033733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.725386</v>
+      </c>
+      <c r="H16">
+        <v>20.176158</v>
+      </c>
+      <c r="I16">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J16">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.304442</v>
+      </c>
+      <c r="O16">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P16">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q16">
+        <v>0.6824966548706667</v>
+      </c>
+      <c r="R16">
+        <v>6.142469893836</v>
+      </c>
+      <c r="S16">
+        <v>0.000116679426439062</v>
+      </c>
+      <c r="T16">
+        <v>0.000116679426439062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.725386</v>
+      </c>
+      <c r="H17">
+        <v>20.176158</v>
+      </c>
+      <c r="I17">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J17">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.132795</v>
+      </c>
+      <c r="N17">
+        <v>0.398385</v>
+      </c>
+      <c r="O17">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P17">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q17">
+        <v>0.89309763387</v>
+      </c>
+      <c r="R17">
+        <v>8.03787870483</v>
+      </c>
+      <c r="S17">
+        <v>0.0001526837075762402</v>
+      </c>
+      <c r="T17">
+        <v>0.0001526837075762402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.725386</v>
+      </c>
+      <c r="H18">
+        <v>20.176158</v>
+      </c>
+      <c r="I18">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J18">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.58612</v>
+      </c>
+      <c r="O18">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P18">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q18">
+        <v>1.313961080773333</v>
+      </c>
+      <c r="R18">
+        <v>11.82564972696</v>
+      </c>
+      <c r="S18">
+        <v>0.0002246343980937683</v>
+      </c>
+      <c r="T18">
+        <v>0.0002246343980937683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.725386</v>
+      </c>
+      <c r="H19">
+        <v>20.176158</v>
+      </c>
+      <c r="I19">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J19">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N19">
+        <v>139.098846</v>
+      </c>
+      <c r="O19">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P19">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q19">
+        <v>311.831143834852</v>
+      </c>
+      <c r="R19">
+        <v>2806.480294513668</v>
+      </c>
+      <c r="S19">
+        <v>0.05331056020396466</v>
+      </c>
+      <c r="T19">
+        <v>0.05331056020396468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H20">
+        <v>31.55363</v>
+      </c>
+      <c r="I20">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J20">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N20">
+        <v>13.169932</v>
+      </c>
+      <c r="O20">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P20">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q20">
+        <v>46.17324016146222</v>
+      </c>
+      <c r="R20">
+        <v>415.55916145316</v>
+      </c>
+      <c r="S20">
+        <v>0.007893763493820202</v>
+      </c>
+      <c r="T20">
+        <v>0.007893763493820202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H21">
+        <v>31.55363</v>
+      </c>
+      <c r="I21">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J21">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N21">
+        <v>157.825459</v>
+      </c>
+      <c r="O21">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P21">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q21">
+        <v>553.3295708740188</v>
+      </c>
+      <c r="R21">
+        <v>4979.966137866169</v>
+      </c>
+      <c r="S21">
+        <v>0.09459705992784297</v>
+      </c>
+      <c r="T21">
+        <v>0.09459705992784298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H22">
+        <v>31.55363</v>
+      </c>
+      <c r="I22">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J22">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.304442</v>
+      </c>
+      <c r="O22">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P22">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q22">
+        <v>1.067361136051111</v>
+      </c>
+      <c r="R22">
+        <v>9.606250224459998</v>
+      </c>
+      <c r="S22">
+        <v>0.0001824757444142923</v>
+      </c>
+      <c r="T22">
+        <v>0.0001824757444142924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H23">
+        <v>31.55363</v>
+      </c>
+      <c r="I23">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J23">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.132795</v>
+      </c>
+      <c r="N23">
+        <v>0.398385</v>
+      </c>
+      <c r="O23">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P23">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q23">
+        <v>1.39672143195</v>
+      </c>
+      <c r="R23">
+        <v>12.57049288755</v>
+      </c>
+      <c r="S23">
+        <v>0.0002387830832752637</v>
+      </c>
+      <c r="T23">
+        <v>0.0002387830832752638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="H16">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="I16">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="J16">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>44.5798055134375</v>
-      </c>
-      <c r="N16">
-        <v>44.5798055134375</v>
-      </c>
-      <c r="O16">
-        <v>0.4395417967163169</v>
-      </c>
-      <c r="P16">
-        <v>0.4395417967163169</v>
-      </c>
-      <c r="Q16">
-        <v>84.54168113727675</v>
-      </c>
-      <c r="R16">
-        <v>84.54168113727675</v>
-      </c>
-      <c r="S16">
-        <v>0.01753138313282214</v>
-      </c>
-      <c r="T16">
-        <v>0.01753138313282214</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H24">
+        <v>31.55363</v>
+      </c>
+      <c r="I24">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J24">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.58612</v>
+      </c>
+      <c r="O24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q24">
+        <v>2.054912623955555</v>
+      </c>
+      <c r="R24">
+        <v>18.4942136156</v>
+      </c>
+      <c r="S24">
+        <v>0.0003513072549651658</v>
+      </c>
+      <c r="T24">
+        <v>0.0003513072549651659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H25">
+        <v>31.55363</v>
+      </c>
+      <c r="I25">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J25">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N25">
+        <v>139.098846</v>
+      </c>
+      <c r="O25">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P25">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q25">
+        <v>487.6748355678865</v>
+      </c>
+      <c r="R25">
+        <v>4389.073520110979</v>
+      </c>
+      <c r="S25">
+        <v>0.08337274578086795</v>
+      </c>
+      <c r="T25">
+        <v>0.08337274578086798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.408603</v>
+      </c>
+      <c r="I26">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J26">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N26">
+        <v>13.169932</v>
+      </c>
+      <c r="O26">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P26">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q26">
+        <v>2.061245080555111</v>
+      </c>
+      <c r="R26">
+        <v>18.551205724996</v>
+      </c>
+      <c r="S26">
+        <v>0.0003523898498741862</v>
+      </c>
+      <c r="T26">
+        <v>0.0003523898498741863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.408603</v>
+      </c>
+      <c r="I27">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J27">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N27">
+        <v>157.825459</v>
+      </c>
+      <c r="O27">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P27">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q27">
+        <v>24.70149055819745</v>
+      </c>
+      <c r="R27">
+        <v>222.313415023777</v>
+      </c>
+      <c r="S27">
+        <v>0.004222959526543836</v>
+      </c>
+      <c r="T27">
+        <v>0.004222959526543837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.408603</v>
+      </c>
+      <c r="I28">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J28">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.304442</v>
+      </c>
+      <c r="O28">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P28">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q28">
+        <v>0.04764865716955555</v>
+      </c>
+      <c r="R28">
+        <v>0.428837914526</v>
+      </c>
+      <c r="S28">
+        <v>8.146000349538403E-06</v>
+      </c>
+      <c r="T28">
+        <v>8.146000349538405E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.408603</v>
+      </c>
+      <c r="I29">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J29">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.132795</v>
+      </c>
+      <c r="N29">
+        <v>0.398385</v>
+      </c>
+      <c r="O29">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P29">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q29">
+        <v>0.062351811795</v>
+      </c>
+      <c r="R29">
+        <v>0.561166306155</v>
+      </c>
+      <c r="S29">
+        <v>1.065964731952509E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.065964731952509E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.408603</v>
+      </c>
+      <c r="I30">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J30">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.58612</v>
+      </c>
+      <c r="O30">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P30">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q30">
+        <v>0.09173448781777777</v>
+      </c>
+      <c r="R30">
+        <v>0.8256103903599999</v>
+      </c>
+      <c r="S30">
+        <v>1.568290092980419E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.56829009298042E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.408603</v>
+      </c>
+      <c r="I31">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J31">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N31">
+        <v>139.098846</v>
+      </c>
+      <c r="O31">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P31">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q31">
+        <v>21.77056130801533</v>
+      </c>
+      <c r="R31">
+        <v>195.935051772138</v>
+      </c>
+      <c r="S31">
+        <v>0.003721888728021719</v>
+      </c>
+      <c r="T31">
+        <v>0.00372188872802172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.116661</v>
+      </c>
+      <c r="H32">
+        <v>6.349983</v>
+      </c>
+      <c r="I32">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J32">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N32">
+        <v>13.169932</v>
+      </c>
+      <c r="O32">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P32">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q32">
+        <v>9.292093812350668</v>
+      </c>
+      <c r="R32">
+        <v>83.628844311156</v>
+      </c>
+      <c r="S32">
+        <v>0.001588573612347577</v>
+      </c>
+      <c r="T32">
+        <v>0.001588573612347577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.116661</v>
+      </c>
+      <c r="H33">
+        <v>6.349983</v>
+      </c>
+      <c r="I33">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J33">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N33">
+        <v>157.825459</v>
+      </c>
+      <c r="O33">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P33">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q33">
+        <v>111.3543312907997</v>
+      </c>
+      <c r="R33">
+        <v>1002.188981617197</v>
+      </c>
+      <c r="S33">
+        <v>0.01903710357229213</v>
+      </c>
+      <c r="T33">
+        <v>0.01903710357229213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.116661</v>
+      </c>
+      <c r="H34">
+        <v>6.349983</v>
+      </c>
+      <c r="I34">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J34">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.304442</v>
+      </c>
+      <c r="O34">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P34">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q34">
+        <v>0.2148001693873333</v>
+      </c>
+      <c r="R34">
+        <v>1.933201524486</v>
+      </c>
+      <c r="S34">
+        <v>3.672217348505073E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.672217348505074E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.116661</v>
+      </c>
+      <c r="H35">
+        <v>6.349983</v>
+      </c>
+      <c r="I35">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J35">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.132795</v>
+      </c>
+      <c r="N35">
+        <v>0.398385</v>
+      </c>
+      <c r="O35">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P35">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q35">
+        <v>0.281081997495</v>
+      </c>
+      <c r="R35">
+        <v>2.529737977455</v>
+      </c>
+      <c r="S35">
+        <v>4.805369523207026E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.805369523207027E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.116661</v>
+      </c>
+      <c r="H36">
+        <v>6.349983</v>
+      </c>
+      <c r="I36">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J36">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.58612</v>
+      </c>
+      <c r="O36">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P36">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q36">
+        <v>0.4135391151066666</v>
+      </c>
+      <c r="R36">
+        <v>3.72185203596</v>
+      </c>
+      <c r="S36">
+        <v>7.06985249179086E-05</v>
+      </c>
+      <c r="T36">
+        <v>7.069852491790863E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.116661</v>
+      </c>
+      <c r="H37">
+        <v>6.349983</v>
+      </c>
+      <c r="I37">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J37">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N37">
+        <v>139.098846</v>
+      </c>
+      <c r="O37">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P37">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q37">
+        <v>98.14170082440199</v>
+      </c>
+      <c r="R37">
+        <v>883.2753074196179</v>
+      </c>
+      <c r="S37">
+        <v>0.01677827617208648</v>
+      </c>
+      <c r="T37">
+        <v>0.01677827617208649</v>
       </c>
     </row>
   </sheetData>
